--- a/SOLIDWORKS 2019 FILES/BOM/RIGID3D-SCT-V2-BOM.xlsx
+++ b/SOLIDWORKS 2019 FILES/BOM/RIGID3D-SCT-V2-BOM.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Google_Drive\GitHub\Rigid3D-Anka-RC-Short-Course-Truck\SOLIDWORKS 2019 FILES\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{CCC46C2B-D028-4F23-AB33-E15D65312C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFD46FC0-0D74-4C5E-B2CA-0E4FA4FF405D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4155" yWindow="0" windowWidth="19200" windowHeight="15600" xr2:uid="{4D6716D0-C564-443B-9B9C-AAA2ADAB2E0F}"/>
+    <workbookView xWindow="4155" yWindow="0" windowWidth="19200" windowHeight="15600" xr2:uid="{4AEA112A-B974-41D8-A161-7DC1C05BA997}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <customWorkbookViews>
-    <customWorkbookView name="Mehmet Sutaş - Kişisel Görünüm" guid="{E39136E9-E2AD-49AD-8723-E1230D6CD3AA}" mergeInterval="0" personalView="1" xWindow="277" windowWidth="1280" windowHeight="1040" activeSheetId="1"/>
+    <customWorkbookView name="Mehmet Sutaş - Kişisel Görünüm" guid="{9028EEDB-AB91-4F56-B1E9-2657FD1F9654}" mergeInterval="0" personalView="1" xWindow="277" windowWidth="1280" windowHeight="1040" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t>ITEM NO.</t>
   </si>
@@ -114,6 +114,36 @@
   <si>
     <t>cover-middle</t>
   </si>
+  <si>
+    <t>body-mount-front</t>
+  </si>
+  <si>
+    <t>body-mount-front-body-bracket</t>
+  </si>
+  <si>
+    <t>body-mount-rear</t>
+  </si>
+  <si>
+    <t>body-mount-rear-body-bracket</t>
+  </si>
+  <si>
+    <t>bumper-back</t>
+  </si>
+  <si>
+    <t>bumper-front</t>
+  </si>
+  <si>
+    <t>countersunk flat head cross recess screw_iso</t>
+  </si>
+  <si>
+    <t>ISO 7046-1 - M3 x 12 - Z - 12N</t>
+  </si>
+  <si>
+    <t>M3 X 20</t>
+  </si>
+  <si>
+    <t>ISO 4762 M3 x 20 - 20N</t>
+  </si>
 </sst>
 </file>
 
@@ -129,6 +159,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="13"/>
       <color theme="1"/>
       <name val="Century Gothic"/>
@@ -139,12 +175,6 @@
       <color theme="1"/>
       <name val="SWGDT"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Candara"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -154,7 +184,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -162,233 +192,23 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -408,13 +228,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{3EA60273-77DC-4EC7-9DC3-83266E02A067}" diskRevisions="1" version="2">
-  <header guid="{0CA8EDD8-32B5-4831-BD16-2107A0DA2194}" dateTime="2022-05-29T15:19:17" maxSheetId="2" userName="Mehmet Sutaş" r:id="rId1">
-    <sheetIdMap count="1">
-      <sheetId val="1"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{3EA60273-77DC-4EC7-9DC3-83266E02A067}" dateTime="2022-05-29T17:39:53" maxSheetId="2" userName="Mehmet Sutaş" r:id="rId2">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{A6B93881-AD83-48F9-BD86-229F94E949C1}">
+  <header guid="{A6B93881-AD83-48F9-BD86-229F94E949C1}" dateTime="2022-11-23T17:10:19" maxSheetId="2" userName="Mehmet Sutaş" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
@@ -424,132 +239,6 @@
 
 <file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
-</file>
-
-<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rfmt sheetId="1" sqref="A1:D9" start="0" length="2147483647">
-    <dxf>
-      <font>
-        <name val="Candara"/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="A1:D9" start="0" length="2147483647">
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="A1:A9" start="0" length="0">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="A1:D1" start="0" length="0">
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="D1:D9" start="0" length="0">
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="A9:D9" start="0" length="0">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="A1:D9">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="A1:A9" start="0" length="0">
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="A1:D1" start="0" length="0">
-    <dxf>
-      <border>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="D1:D9" start="0" length="0">
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="A9:D9" start="0" length="0">
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="A1:D1" start="0" length="0">
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-  </rfmt>
-  <rcv guid="{E39136E9-E2AD-49AD-8723-E1230D6CD3AA}" action="delete"/>
-  <rcv guid="{E39136E9-E2AD-49AD-8723-E1230D6CD3AA}" action="add"/>
-</revisions>
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
@@ -852,169 +541,290 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFFB3AF0-C684-4BC1-B11C-764CA5DBCB47}">
-  <dimension ref="A1:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41ABB7E2-8340-44DA-970B-AC2A85C425AB}">
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:5" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="15" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+    <row r="2" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>124</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="13">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>125</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="5">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>126</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="5">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>127</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="1">
         <v>5</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+    <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>128</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="5">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>129</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="5">
-        <v>6</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="D7" s="1">
+        <v>6</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+    <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>130</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="5">
-        <v>4</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="D8" s="1">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
+    <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>131</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>6</v>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>132</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>133</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>134</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>135</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>136</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>137</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>138</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>139</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="2">
+        <v>6</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{E39136E9-E2AD-49AD-8723-E1230D6CD3AA}">
-      <selection sqref="A1:D9"/>
+    <customSheetView guid="{9028EEDB-AB91-4F56-B1E9-2657FD1F9654}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
